--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H2">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I2">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J2">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.661285666666667</v>
+        <v>3.613473333333334</v>
       </c>
       <c r="N2">
-        <v>7.983857</v>
+        <v>10.84042</v>
       </c>
       <c r="O2">
-        <v>0.04511803595953789</v>
+        <v>0.06011084487215831</v>
       </c>
       <c r="P2">
-        <v>0.04511803595953789</v>
+        <v>0.06011084487215831</v>
       </c>
       <c r="Q2">
-        <v>239.4092310733814</v>
+        <v>332.2276682487845</v>
       </c>
       <c r="R2">
-        <v>2154.683079660433</v>
+        <v>2990.04901423906</v>
       </c>
       <c r="S2">
-        <v>0.001022003164724178</v>
+        <v>0.001387086364114467</v>
       </c>
       <c r="T2">
-        <v>0.001022003164724178</v>
+        <v>0.001387086364114467</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H3">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I3">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J3">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>123.9369</v>
       </c>
       <c r="O3">
-        <v>0.7003869822460062</v>
+        <v>0.6872382961025677</v>
       </c>
       <c r="P3">
-        <v>0.7003869822460062</v>
+        <v>0.6872382961025677</v>
       </c>
       <c r="Q3">
-        <v>3716.454081106233</v>
+        <v>3798.309225747967</v>
       </c>
       <c r="R3">
-        <v>33448.0867299561</v>
+        <v>34184.78303173171</v>
       </c>
       <c r="S3">
-        <v>0.01586500159335318</v>
+        <v>0.01585835087576111</v>
       </c>
       <c r="T3">
-        <v>0.01586500159335319</v>
+        <v>0.01585835087576111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H4">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I4">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J4">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.96084766666667</v>
+        <v>0.3351513333333333</v>
       </c>
       <c r="N4">
-        <v>44.882543</v>
+        <v>1.005454</v>
       </c>
       <c r="O4">
-        <v>0.2536383340820741</v>
+        <v>0.005575308836750888</v>
       </c>
       <c r="P4">
-        <v>0.2536383340820741</v>
+        <v>0.005575308836750887</v>
       </c>
       <c r="Q4">
-        <v>1345.877701497908</v>
+        <v>30.81427084480244</v>
       </c>
       <c r="R4">
-        <v>12112.89931348117</v>
+        <v>277.328437603222</v>
       </c>
       <c r="S4">
-        <v>0.005745356033665057</v>
+        <v>0.0001286529058047887</v>
       </c>
       <c r="T4">
-        <v>0.005745356033665058</v>
+        <v>0.0001286529058047886</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H5">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I5">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J5">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05052933333333334</v>
+        <v>14.67089366666667</v>
       </c>
       <c r="N5">
-        <v>0.151588</v>
+        <v>44.012681</v>
       </c>
       <c r="O5">
-        <v>0.0008566477123819265</v>
+        <v>0.2440532230299923</v>
       </c>
       <c r="P5">
-        <v>0.0008566477123819264</v>
+        <v>0.2440532230299923</v>
       </c>
       <c r="Q5">
-        <v>4.545618304530223</v>
+        <v>1348.861979702593</v>
       </c>
       <c r="R5">
-        <v>40.910564740772</v>
+        <v>12139.75781732333</v>
       </c>
       <c r="S5">
-        <v>1.940458298967638E-05</v>
+        <v>0.005631644314816204</v>
       </c>
       <c r="T5">
-        <v>1.940458298967638E-05</v>
+        <v>0.005631644314816203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3857.568359333333</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H6">
-        <v>11572.705078</v>
+        <v>275.824093</v>
       </c>
       <c r="I6">
-        <v>0.9713288509301208</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J6">
-        <v>0.971328850930121</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.661285666666667</v>
+        <v>0.1816826666666667</v>
       </c>
       <c r="N6">
-        <v>7.983857</v>
+        <v>0.545048</v>
       </c>
       <c r="O6">
-        <v>0.04511803595953789</v>
+        <v>0.003022327158530771</v>
       </c>
       <c r="P6">
-        <v>0.04511803595953789</v>
+        <v>0.003022327158530771</v>
       </c>
       <c r="Q6">
-        <v>10266.09138288065</v>
+        <v>16.70415224905156</v>
       </c>
       <c r="R6">
-        <v>92394.82244592583</v>
+        <v>150.337370241464</v>
       </c>
       <c r="S6">
-        <v>0.04382445002480181</v>
+        <v>6.974163810884282E-05</v>
       </c>
       <c r="T6">
-        <v>0.04382445002480182</v>
+        <v>6.974163810884281E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I7">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J7">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.3123</v>
+        <v>3.613473333333334</v>
       </c>
       <c r="N7">
-        <v>123.9369</v>
+        <v>10.84042</v>
       </c>
       <c r="O7">
-        <v>0.7003869822460062</v>
+        <v>0.06011084487215831</v>
       </c>
       <c r="P7">
-        <v>0.7003869822460062</v>
+        <v>0.06011084487215831</v>
       </c>
       <c r="Q7">
-        <v>159365.0213312864</v>
+        <v>13939.22039796142</v>
       </c>
       <c r="R7">
-        <v>1434285.191981578</v>
+        <v>125452.9835816528</v>
       </c>
       <c r="S7">
-        <v>0.680306082671428</v>
+        <v>0.05819774927932799</v>
       </c>
       <c r="T7">
-        <v>0.6803060826714282</v>
+        <v>0.05819774927932799</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I8">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J8">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.96084766666667</v>
+        <v>41.3123</v>
       </c>
       <c r="N8">
-        <v>44.882543</v>
+        <v>123.9369</v>
       </c>
       <c r="O8">
-        <v>0.2536383340820741</v>
+        <v>0.6872382961025677</v>
       </c>
       <c r="P8">
-        <v>0.2536383340820741</v>
+        <v>0.6872382961025677</v>
       </c>
       <c r="Q8">
-        <v>57712.49258773925</v>
+        <v>159365.0213312864</v>
       </c>
       <c r="R8">
-        <v>519412.4332896533</v>
+        <v>1434285.191981578</v>
       </c>
       <c r="S8">
-        <v>0.2463662315957711</v>
+        <v>0.6653661604123405</v>
       </c>
       <c r="T8">
-        <v>0.2463662315957712</v>
+        <v>0.6653661604123405</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>11572.705078</v>
       </c>
       <c r="I9">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J9">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05052933333333334</v>
+        <v>0.3351513333333333</v>
       </c>
       <c r="N9">
-        <v>0.151588</v>
+        <v>1.005454</v>
       </c>
       <c r="O9">
-        <v>0.0008566477123819265</v>
+        <v>0.005575308836750888</v>
       </c>
       <c r="P9">
-        <v>0.0008566477123819264</v>
+        <v>0.005575308836750887</v>
       </c>
       <c r="Q9">
-        <v>194.9203574848738</v>
+        <v>1292.869179055046</v>
       </c>
       <c r="R9">
-        <v>1754.283217363864</v>
+        <v>11635.82261149541</v>
       </c>
       <c r="S9">
-        <v>0.0008320866381198533</v>
+        <v>0.005397868330184388</v>
       </c>
       <c r="T9">
-        <v>0.0008320866381198534</v>
+        <v>0.005397868330184387</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1342213333333333</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H10">
-        <v>0.402664</v>
+        <v>11572.705078</v>
       </c>
       <c r="I10">
-        <v>3.379669297668818E-05</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J10">
-        <v>3.379669297668818E-05</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.661285666666667</v>
+        <v>14.67089366666667</v>
       </c>
       <c r="N10">
-        <v>7.983857</v>
+        <v>44.012681</v>
       </c>
       <c r="O10">
-        <v>0.04511803595953789</v>
+        <v>0.2440532230299923</v>
       </c>
       <c r="P10">
-        <v>0.04511803595953789</v>
+        <v>0.2440532230299923</v>
       </c>
       <c r="Q10">
-        <v>0.3572013105608889</v>
+        <v>56593.97521167711</v>
       </c>
       <c r="R10">
-        <v>3.214811795048</v>
+        <v>509345.7769050941</v>
       </c>
       <c r="S10">
-        <v>1.524840409035679E-06</v>
+        <v>0.2362859533070714</v>
       </c>
       <c r="T10">
-        <v>1.524840409035679E-06</v>
+        <v>0.2362859533070713</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1342213333333333</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H11">
-        <v>0.402664</v>
+        <v>11572.705078</v>
       </c>
       <c r="I11">
-        <v>3.379669297668818E-05</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J11">
-        <v>3.379669297668818E-05</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.3123</v>
+        <v>0.1816826666666667</v>
       </c>
       <c r="N11">
-        <v>123.9369</v>
+        <v>0.545048</v>
       </c>
       <c r="O11">
-        <v>0.7003869822460062</v>
+        <v>0.003022327158530771</v>
       </c>
       <c r="P11">
-        <v>0.7003869822460062</v>
+        <v>0.003022327158530771</v>
       </c>
       <c r="Q11">
-        <v>5.544991989066666</v>
+        <v>700.8533063726381</v>
       </c>
       <c r="R11">
-        <v>49.9049279016</v>
+        <v>6307.679757353743</v>
       </c>
       <c r="S11">
-        <v>2.367076380383742E-05</v>
+        <v>0.002926138179996638</v>
       </c>
       <c r="T11">
-        <v>2.367076380383743E-05</v>
+        <v>0.002926138179996638</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H12">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I12">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J12">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.96084766666667</v>
+        <v>3.613473333333334</v>
       </c>
       <c r="N12">
-        <v>44.882543</v>
+        <v>10.84042</v>
       </c>
       <c r="O12">
-        <v>0.2536383340820741</v>
+        <v>0.06011084487215831</v>
       </c>
       <c r="P12">
-        <v>0.2536383340820741</v>
+        <v>0.06011084487215831</v>
       </c>
       <c r="Q12">
-        <v>2.008064921616889</v>
+        <v>6.65143117784889</v>
       </c>
       <c r="R12">
-        <v>18.072584294552</v>
+        <v>59.86288060064001</v>
       </c>
       <c r="S12">
-        <v>8.572136904090524E-06</v>
+        <v>2.777044289318844E-05</v>
       </c>
       <c r="T12">
-        <v>8.572136904090525E-06</v>
+        <v>2.777044289318844E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H13">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I13">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J13">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05052933333333334</v>
+        <v>41.3123</v>
       </c>
       <c r="N13">
-        <v>0.151588</v>
+        <v>123.9369</v>
       </c>
       <c r="O13">
-        <v>0.0008566477123819265</v>
+        <v>0.6872382961025677</v>
       </c>
       <c r="P13">
-        <v>0.0008566477123819264</v>
+        <v>0.6872382961025677</v>
       </c>
       <c r="Q13">
-        <v>0.006782114492444444</v>
+        <v>76.04481752053334</v>
       </c>
       <c r="R13">
-        <v>0.06103903043200001</v>
+        <v>684.4033576848001</v>
       </c>
       <c r="S13">
-        <v>2.895185972455425E-08</v>
+        <v>0.0003174953187984235</v>
       </c>
       <c r="T13">
-        <v>2.895185972455425E-08</v>
+        <v>0.0003174953187984235</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.51770233333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H14">
-        <v>70.553107</v>
+        <v>5.522192</v>
       </c>
       <c r="I14">
-        <v>0.005921715613589566</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J14">
-        <v>0.005921715613589568</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,43 +1302,43 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.661285666666667</v>
+        <v>0.3351513333333333</v>
       </c>
       <c r="N14">
-        <v>7.983857</v>
+        <v>1.005454</v>
       </c>
       <c r="O14">
-        <v>0.04511803595953789</v>
+        <v>0.005575308836750888</v>
       </c>
       <c r="P14">
-        <v>0.04511803595953789</v>
+        <v>0.005575308836750887</v>
       </c>
       <c r="Q14">
-        <v>62.58732413263322</v>
+        <v>0.6169233372408889</v>
       </c>
       <c r="R14">
-        <v>563.285917193699</v>
+        <v>5.552310035167999</v>
       </c>
       <c r="S14">
-        <v>0.0002671761779960911</v>
+        <v>2.575721502370561E-06</v>
       </c>
       <c r="T14">
-        <v>0.0002671761779960912</v>
+        <v>2.575721502370561E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.51770233333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H15">
-        <v>70.553107</v>
+        <v>5.522192</v>
       </c>
       <c r="I15">
-        <v>0.005921715613589566</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J15">
-        <v>0.005921715613589568</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.3123</v>
+        <v>14.67089366666667</v>
       </c>
       <c r="N15">
-        <v>123.9369</v>
+        <v>44.012681</v>
       </c>
       <c r="O15">
-        <v>0.7003869822460062</v>
+        <v>0.2440532230299923</v>
       </c>
       <c r="P15">
-        <v>0.7003869822460062</v>
+        <v>0.2440532230299923</v>
       </c>
       <c r="Q15">
-        <v>971.5703741053667</v>
+        <v>27.00516387963911</v>
       </c>
       <c r="R15">
-        <v>8744.133366948299</v>
+        <v>243.046474916752</v>
       </c>
       <c r="S15">
-        <v>0.004147492528321053</v>
+        <v>0.0001127494732018335</v>
       </c>
       <c r="T15">
-        <v>0.004147492528321054</v>
+        <v>0.0001127494732018335</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>23.51770233333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H16">
-        <v>70.553107</v>
+        <v>5.522192</v>
       </c>
       <c r="I16">
-        <v>0.005921715613589566</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J16">
-        <v>0.005921715613589568</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.96084766666667</v>
+        <v>0.1816826666666667</v>
       </c>
       <c r="N16">
-        <v>44.882543</v>
+        <v>0.545048</v>
       </c>
       <c r="O16">
-        <v>0.2536383340820741</v>
+        <v>0.003022327158530771</v>
       </c>
       <c r="P16">
-        <v>0.2536383340820741</v>
+        <v>0.003022327158530771</v>
       </c>
       <c r="Q16">
-        <v>351.8447620790112</v>
+        <v>0.3344288561351111</v>
       </c>
       <c r="R16">
-        <v>3166.602858711101</v>
+        <v>3.009859705216</v>
       </c>
       <c r="S16">
-        <v>0.001501974083138665</v>
+        <v>1.396276561060048E-06</v>
       </c>
       <c r="T16">
-        <v>0.001501974083138665</v>
+        <v>1.396276561060048E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H17">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I17">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J17">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.05052933333333334</v>
+        <v>3.613473333333334</v>
       </c>
       <c r="N17">
-        <v>0.151588</v>
+        <v>10.84042</v>
       </c>
       <c r="O17">
-        <v>0.0008566477123819265</v>
+        <v>0.06011084487215831</v>
       </c>
       <c r="P17">
-        <v>0.0008566477123819264</v>
+        <v>0.06011084487215831</v>
       </c>
       <c r="Q17">
-        <v>1.188333820435111</v>
+        <v>112.4484403073645</v>
       </c>
       <c r="R17">
-        <v>10.695004383916</v>
+        <v>1012.03596276628</v>
       </c>
       <c r="S17">
-        <v>5.072824133757839E-06</v>
+        <v>0.0004694843720827141</v>
       </c>
       <c r="T17">
-        <v>5.07282413375784E-06</v>
+        <v>0.0004694843720827141</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.253661</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H18">
-        <v>0.760983</v>
+        <v>93.357634</v>
       </c>
       <c r="I18">
-        <v>6.387138858074995E-05</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J18">
-        <v>6.387138858074996E-05</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.661285666666667</v>
+        <v>41.3123</v>
       </c>
       <c r="N18">
-        <v>7.983857</v>
+        <v>123.9369</v>
       </c>
       <c r="O18">
-        <v>0.04511803595953789</v>
+        <v>0.6872382961025677</v>
       </c>
       <c r="P18">
-        <v>0.04511803595953789</v>
+        <v>0.6872382961025677</v>
       </c>
       <c r="Q18">
-        <v>0.6750643834923332</v>
+        <v>1285.606194366067</v>
       </c>
       <c r="R18">
-        <v>6.075579451431</v>
+        <v>11570.4557492946</v>
       </c>
       <c r="S18">
-        <v>2.881751606771894E-06</v>
+        <v>0.005367544585392275</v>
       </c>
       <c r="T18">
-        <v>2.881751606771895E-06</v>
+        <v>0.005367544585392275</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,25 +1585,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.253661</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H19">
-        <v>0.760983</v>
+        <v>93.357634</v>
       </c>
       <c r="I19">
-        <v>6.387138858074995E-05</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J19">
-        <v>6.387138858074996E-05</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>41.3123</v>
+        <v>0.3351513333333333</v>
       </c>
       <c r="N19">
-        <v>123.9369</v>
+        <v>1.005454</v>
       </c>
       <c r="O19">
-        <v>0.7003869822460062</v>
+        <v>0.005575308836750888</v>
       </c>
       <c r="P19">
-        <v>0.7003869822460062</v>
+        <v>0.005575308836750887</v>
       </c>
       <c r="Q19">
-        <v>10.4793193303</v>
+        <v>10.42964517064844</v>
       </c>
       <c r="R19">
-        <v>94.31387397269999</v>
+        <v>93.86680653583599</v>
       </c>
       <c r="S19">
-        <v>4.473468909993347E-05</v>
+        <v>4.354489400300479E-05</v>
       </c>
       <c r="T19">
-        <v>4.473468909993348E-05</v>
+        <v>4.354489400300479E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.253661</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H20">
-        <v>0.760983</v>
+        <v>93.357634</v>
       </c>
       <c r="I20">
-        <v>6.387138858074995E-05</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J20">
-        <v>6.387138858074996E-05</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.96084766666667</v>
+        <v>14.67089366666667</v>
       </c>
       <c r="N20">
-        <v>44.882543</v>
+        <v>44.012681</v>
       </c>
       <c r="O20">
-        <v>0.2536383340820741</v>
+        <v>0.2440532230299923</v>
       </c>
       <c r="P20">
-        <v>0.2536383340820741</v>
+        <v>0.2440532230299923</v>
       </c>
       <c r="Q20">
-        <v>3.794983579974333</v>
+        <v>456.5466404618616</v>
       </c>
       <c r="R20">
-        <v>34.154852219769</v>
+        <v>4108.919764156754</v>
       </c>
       <c r="S20">
-        <v>1.620023259513023E-05</v>
+        <v>0.001906131487798609</v>
       </c>
       <c r="T20">
-        <v>1.620023259513023E-05</v>
+        <v>0.001906131487798609</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.253661</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H21">
-        <v>0.760983</v>
+        <v>93.357634</v>
       </c>
       <c r="I21">
-        <v>6.387138858074995E-05</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J21">
-        <v>6.387138858074996E-05</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.05052933333333334</v>
+        <v>0.1816826666666667</v>
       </c>
       <c r="N21">
-        <v>0.151588</v>
+        <v>0.545048</v>
       </c>
       <c r="O21">
-        <v>0.0008566477123819265</v>
+        <v>0.003022327158530771</v>
       </c>
       <c r="P21">
-        <v>0.0008566477123819264</v>
+        <v>0.003022327158530771</v>
       </c>
       <c r="Q21">
-        <v>0.01281732122266667</v>
+        <v>5.653821299603556</v>
       </c>
       <c r="R21">
-        <v>0.115355891004</v>
+        <v>50.884391696432</v>
       </c>
       <c r="S21">
-        <v>5.471527891435655E-08</v>
+        <v>2.360531400397209E-05</v>
       </c>
       <c r="T21">
-        <v>5.471527891435656E-08</v>
+        <v>2.360531400397209E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.905952</v>
+      </c>
+      <c r="H22">
+        <v>5.717856</v>
+      </c>
+      <c r="I22">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="J22">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.613473333333334</v>
+      </c>
+      <c r="N22">
+        <v>10.84042</v>
+      </c>
+      <c r="O22">
+        <v>0.06011084487215831</v>
+      </c>
+      <c r="P22">
+        <v>0.06011084487215831</v>
+      </c>
+      <c r="Q22">
+        <v>6.887106726613334</v>
+      </c>
+      <c r="R22">
+        <v>61.98396053952001</v>
+      </c>
+      <c r="S22">
+        <v>2.875441373995596E-05</v>
+      </c>
+      <c r="T22">
+        <v>2.875441373995596E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.905952</v>
+      </c>
+      <c r="H23">
+        <v>5.717856</v>
+      </c>
+      <c r="I23">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="J23">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>41.3123</v>
+      </c>
+      <c r="N23">
+        <v>123.9369</v>
+      </c>
+      <c r="O23">
+        <v>0.6872382961025677</v>
+      </c>
+      <c r="P23">
+        <v>0.6872382961025677</v>
+      </c>
+      <c r="Q23">
+        <v>78.73926080960001</v>
+      </c>
+      <c r="R23">
+        <v>708.6533472864</v>
+      </c>
+      <c r="S23">
+        <v>0.0003287449102753903</v>
+      </c>
+      <c r="T23">
+        <v>0.0003287449102753903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.905952</v>
+      </c>
+      <c r="H24">
+        <v>5.717856</v>
+      </c>
+      <c r="I24">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="J24">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.3351513333333333</v>
+      </c>
+      <c r="N24">
+        <v>1.005454</v>
+      </c>
+      <c r="O24">
+        <v>0.005575308836750888</v>
+      </c>
+      <c r="P24">
+        <v>0.005575308836750887</v>
+      </c>
+      <c r="Q24">
+        <v>0.6387823540693333</v>
+      </c>
+      <c r="R24">
+        <v>5.749041186623999</v>
+      </c>
+      <c r="S24">
+        <v>2.666985256336348E-06</v>
+      </c>
+      <c r="T24">
+        <v>2.666985256336347E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.905952</v>
+      </c>
+      <c r="H25">
+        <v>5.717856</v>
+      </c>
+      <c r="I25">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="J25">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.67089366666667</v>
+      </c>
+      <c r="N25">
+        <v>44.012681</v>
+      </c>
+      <c r="O25">
+        <v>0.2440532230299923</v>
+      </c>
+      <c r="P25">
+        <v>0.2440532230299923</v>
+      </c>
+      <c r="Q25">
+        <v>27.96201912577067</v>
+      </c>
+      <c r="R25">
+        <v>251.658172131936</v>
+      </c>
+      <c r="S25">
+        <v>0.0001167444471043279</v>
+      </c>
+      <c r="T25">
+        <v>0.0001167444471043279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.905952</v>
+      </c>
+      <c r="H26">
+        <v>5.717856</v>
+      </c>
+      <c r="I26">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="J26">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1816826666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.545048</v>
+      </c>
+      <c r="O26">
+        <v>0.003022327158530771</v>
+      </c>
+      <c r="P26">
+        <v>0.003022327158530771</v>
+      </c>
+      <c r="Q26">
+        <v>0.3462784418986667</v>
+      </c>
+      <c r="R26">
+        <v>3.116505977088</v>
+      </c>
+      <c r="S26">
+        <v>1.445749860257768E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.445749860257768E-06</v>
       </c>
     </row>
   </sheetData>
